--- a/notebooks/output/pums_grossrent_gap.xlsx
+++ b/notebooks/output/pums_grossrent_gap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="29">
   <si>
     <t>AMI_range</t>
   </si>
@@ -6816,164 +6816,146 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -6986,74 +6968,74 @@
       <c r="C5">
         <v>2162</v>
       </c>
+      <c r="D5">
+        <v>650</v>
+      </c>
       <c r="E5">
-        <v>650</v>
+        <v>576</v>
       </c>
       <c r="F5">
+        <v>699</v>
+      </c>
+      <c r="G5">
+        <v>207</v>
+      </c>
+      <c r="I5">
         <v>468</v>
       </c>
-      <c r="G5">
-        <v>576</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
         <v>148</v>
       </c>
-      <c r="I5">
-        <v>699</v>
-      </c>
-      <c r="J5">
+      <c r="K5">
         <v>6394</v>
-      </c>
-      <c r="K5">
-        <v>207</v>
       </c>
       <c r="M5">
         <v>12.21565123645291</v>
       </c>
+      <c r="N5">
+        <v>22.85562936417984</v>
+      </c>
       <c r="O5">
-        <v>22.85562936417984</v>
+        <v>20.85960519974357</v>
       </c>
       <c r="P5">
+        <v>18.09764990495025</v>
+      </c>
+      <c r="Q5">
+        <v>24.92904305083965</v>
+      </c>
+      <c r="S5">
         <v>42.91326022230128</v>
       </c>
-      <c r="Q5">
-        <v>20.85960519974357</v>
-      </c>
-      <c r="R5">
+      <c r="T5">
         <v>35.49108558710682</v>
       </c>
-      <c r="S5">
-        <v>18.09764990495025</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
         <v>7.979901130360856</v>
-      </c>
-      <c r="U5">
-        <v>24.92904305083965</v>
       </c>
       <c r="W5">
         <v>714.667642114588</v>
       </c>
+      <c r="X5">
+        <v>402.0113789263309</v>
+      </c>
       <c r="Y5">
-        <v>402.0113789263309</v>
+        <v>325.1324918052639</v>
       </c>
       <c r="Z5">
+        <v>342.3191246574605</v>
+      </c>
+      <c r="AA5">
+        <v>139.6393304038121</v>
+      </c>
+      <c r="AC5">
         <v>543.4619813674872</v>
       </c>
-      <c r="AA5">
-        <v>325.1324918052639</v>
-      </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>142.1388520162591</v>
       </c>
-      <c r="AC5">
-        <v>342.3191246574605</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1380.708336484846</v>
-      </c>
-      <c r="AE5">
-        <v>139.6393304038121</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -7066,74 +7048,74 @@
       <c r="C6">
         <v>1571</v>
       </c>
+      <c r="D6">
+        <v>1337</v>
+      </c>
       <c r="E6">
-        <v>1337</v>
+        <v>215</v>
       </c>
       <c r="F6">
+        <v>481</v>
+      </c>
+      <c r="G6">
+        <v>744</v>
+      </c>
+      <c r="I6">
         <v>1021</v>
       </c>
-      <c r="G6">
-        <v>215</v>
-      </c>
-      <c r="H6">
+      <c r="J6">
         <v>802</v>
       </c>
-      <c r="I6">
-        <v>481</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
         <v>6033</v>
-      </c>
-      <c r="K6">
-        <v>744</v>
       </c>
       <c r="M6">
         <v>14.14200391552199</v>
       </c>
+      <c r="N6">
+        <v>12.46427960968079</v>
+      </c>
       <c r="O6">
-        <v>12.46427960968079</v>
+        <v>33.18906610203219</v>
       </c>
       <c r="P6">
+        <v>21.97683733159622</v>
+      </c>
+      <c r="Q6">
+        <v>20.02777575857165</v>
+      </c>
+      <c r="S6">
         <v>17.94710333498179</v>
       </c>
-      <c r="Q6">
-        <v>33.18906610203219</v>
-      </c>
-      <c r="R6">
+      <c r="T6">
         <v>19.48570050720438</v>
       </c>
-      <c r="S6">
-        <v>21.97683733159622</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
         <v>6.723800306631465</v>
-      </c>
-      <c r="U6">
-        <v>20.02777575857165</v>
       </c>
       <c r="W6">
         <v>601.1999596458112</v>
       </c>
+      <c r="X6">
+        <v>450.9520803256151</v>
+      </c>
       <c r="Y6">
-        <v>450.9520803256151</v>
+        <v>193.0924515873161</v>
       </c>
       <c r="Z6">
+        <v>286.0500806655191</v>
+      </c>
+      <c r="AA6">
+        <v>403.215724514341</v>
+      </c>
+      <c r="AC6">
         <v>495.8518181838703</v>
       </c>
-      <c r="AA6">
-        <v>193.0924515873161</v>
-      </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>422.8849175743621</v>
       </c>
-      <c r="AC6">
-        <v>286.0500806655191</v>
-      </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1097.690578154313</v>
-      </c>
-      <c r="AE6">
-        <v>403.215724514341</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -7146,26 +7128,26 @@
       <c r="C7">
         <v>2588</v>
       </c>
+      <c r="D7">
+        <v>2681</v>
+      </c>
       <c r="E7">
-        <v>2681</v>
+        <v>318</v>
       </c>
       <c r="F7">
+        <v>468</v>
+      </c>
+      <c r="G7">
+        <v>2566</v>
+      </c>
+      <c r="I7">
         <v>1426</v>
       </c>
-      <c r="G7">
-        <v>318</v>
-      </c>
-      <c r="H7">
+      <c r="J7">
         <v>1887</v>
       </c>
-      <c r="I7">
-        <v>468</v>
-      </c>
-      <c r="J7">
+      <c r="K7">
         <v>6295</v>
-      </c>
-      <c r="K7">
-        <v>2566</v>
       </c>
       <c r="L7">
         <v>159</v>
@@ -7173,26 +7155,26 @@
       <c r="M7">
         <v>12.68654278279829</v>
       </c>
+      <c r="N7">
+        <v>9.357691799721152</v>
+      </c>
       <c r="O7">
-        <v>9.357691799721152</v>
+        <v>33.65836983819588</v>
       </c>
       <c r="P7">
+        <v>19.01191458546458</v>
+      </c>
+      <c r="Q7">
+        <v>12.76770437282085</v>
+      </c>
+      <c r="S7">
         <v>14.95467108239537</v>
       </c>
-      <c r="Q7">
-        <v>33.65836983819588</v>
-      </c>
-      <c r="R7">
+      <c r="T7">
         <v>13.2825165974438</v>
       </c>
-      <c r="S7">
-        <v>19.01191458546458</v>
-      </c>
-      <c r="T7">
+      <c r="U7">
         <v>5.618249893841788</v>
-      </c>
-      <c r="U7">
-        <v>12.76770437282085</v>
       </c>
       <c r="V7">
         <v>31.9739216480831</v>
@@ -7200,26 +7182,26 @@
       <c r="W7">
         <v>888.4630380473067</v>
       </c>
+      <c r="X7">
+        <v>678.8867866022471</v>
+      </c>
       <c r="Y7">
-        <v>678.8867866022471</v>
+        <v>289.6356409676648</v>
       </c>
       <c r="Z7">
+        <v>240.7706316574968</v>
+      </c>
+      <c r="AA7">
+        <v>886.5460006053689</v>
+      </c>
+      <c r="AC7">
         <v>577.0695990124372</v>
       </c>
-      <c r="AA7">
-        <v>289.6356409676648</v>
-      </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>678.2410506795317</v>
       </c>
-      <c r="AC7">
-        <v>240.7706316574968</v>
-      </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>957.0366979124939</v>
-      </c>
-      <c r="AE7">
-        <v>886.5460006053689</v>
       </c>
       <c r="AF7">
         <v>137.570347811129</v>
@@ -7236,73 +7218,73 @@
         <v>3981</v>
       </c>
       <c r="D8">
+        <v>4692</v>
+      </c>
+      <c r="E8">
+        <v>552</v>
+      </c>
+      <c r="G8">
+        <v>2585</v>
+      </c>
+      <c r="H8">
         <v>44</v>
       </c>
-      <c r="E8">
-        <v>4692</v>
-      </c>
-      <c r="F8">
+      <c r="I8">
         <v>1827</v>
       </c>
-      <c r="G8">
-        <v>552</v>
-      </c>
-      <c r="H8">
+      <c r="J8">
         <v>1747</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3835</v>
-      </c>
-      <c r="K8">
-        <v>2585</v>
       </c>
       <c r="M8">
         <v>9.712687790620956</v>
       </c>
       <c r="N8">
+        <v>8.494507113499679</v>
+      </c>
+      <c r="O8">
+        <v>31.22620421680386</v>
+      </c>
+      <c r="Q8">
+        <v>10.53807662705639</v>
+      </c>
+      <c r="R8">
         <v>42.76707069055784</v>
       </c>
-      <c r="O8">
-        <v>8.494507113499679</v>
-      </c>
-      <c r="P8">
+      <c r="S8">
         <v>10.29369412206276</v>
       </c>
-      <c r="Q8">
-        <v>31.22620421680386</v>
-      </c>
-      <c r="R8">
+      <c r="T8">
         <v>13.6302882122466</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>7.035068060347093</v>
-      </c>
-      <c r="U8">
-        <v>10.53807662705639</v>
       </c>
       <c r="W8">
         <v>1046.317311708666</v>
       </c>
       <c r="X8">
+        <v>1078.51947686603</v>
+      </c>
+      <c r="Y8">
+        <v>466.4338687470872</v>
+      </c>
+      <c r="AA8">
+        <v>737.1463241022776</v>
+      </c>
+      <c r="AB8">
         <v>50.92065548478338</v>
       </c>
-      <c r="Y8">
-        <v>1078.51947686603</v>
-      </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>508.9107337416848</v>
       </c>
-      <c r="AA8">
-        <v>466.4338687470872</v>
-      </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>644.3617445222443</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>730.0716363408285</v>
-      </c>
-      <c r="AE8">
-        <v>737.1463241022776</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -7316,28 +7298,28 @@
         <v>3556</v>
       </c>
       <c r="D9">
+        <v>2919</v>
+      </c>
+      <c r="E9">
+        <v>283</v>
+      </c>
+      <c r="F9">
+        <v>413</v>
+      </c>
+      <c r="G9">
+        <v>3973</v>
+      </c>
+      <c r="H9">
         <v>1184</v>
       </c>
-      <c r="E9">
-        <v>2919</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>3769</v>
       </c>
-      <c r="G9">
-        <v>283</v>
-      </c>
-      <c r="H9">
+      <c r="J9">
         <v>3073</v>
       </c>
-      <c r="I9">
-        <v>413</v>
-      </c>
-      <c r="J9">
+      <c r="K9">
         <v>8168</v>
-      </c>
-      <c r="K9">
-        <v>3973</v>
       </c>
       <c r="L9">
         <v>342</v>
@@ -7346,28 +7328,28 @@
         <v>7.318053519252915</v>
       </c>
       <c r="N9">
+        <v>8.907841287975248</v>
+      </c>
+      <c r="O9">
+        <v>21.97816586480527</v>
+      </c>
+      <c r="P9">
+        <v>21.97395078642615</v>
+      </c>
+      <c r="Q9">
+        <v>7.281199687209164</v>
+      </c>
+      <c r="R9">
         <v>18.16710517586007</v>
       </c>
-      <c r="O9">
-        <v>8.907841287975248</v>
-      </c>
-      <c r="P9">
+      <c r="S9">
         <v>9.138561255773551</v>
       </c>
-      <c r="Q9">
-        <v>21.97816586480527</v>
-      </c>
-      <c r="R9">
+      <c r="T9">
         <v>8.262735065751945</v>
       </c>
-      <c r="S9">
-        <v>21.97395078642615</v>
-      </c>
-      <c r="T9">
+      <c r="U9">
         <v>5.186500852956509</v>
-      </c>
-      <c r="U9">
-        <v>7.281199687209164</v>
       </c>
       <c r="V9">
         <v>23.11423234062481</v>
@@ -7376,28 +7358,28 @@
         <v>704.1888401389573</v>
       </c>
       <c r="X9">
+        <v>703.6203152495492</v>
+      </c>
+      <c r="Y9">
+        <v>168.3099095845964</v>
+      </c>
+      <c r="Z9">
+        <v>245.5783085303443</v>
+      </c>
+      <c r="AA9">
+        <v>782.8044960796406</v>
+      </c>
+      <c r="AB9">
         <v>582.0619868767201</v>
       </c>
-      <c r="Y9">
-        <v>703.6203152495492</v>
-      </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>932.0426141230079</v>
       </c>
-      <c r="AA9">
-        <v>168.3099095845964</v>
-      </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>687.0972220781423</v>
       </c>
-      <c r="AC9">
-        <v>245.5783085303443</v>
-      </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1146.362543280375</v>
-      </c>
-      <c r="AE9">
-        <v>782.8044960796406</v>
       </c>
       <c r="AF9">
         <v>213.9131017478242</v>
@@ -7414,28 +7396,28 @@
         <v>1607</v>
       </c>
       <c r="D10">
+        <v>2600</v>
+      </c>
+      <c r="E10">
+        <v>1387</v>
+      </c>
+      <c r="F10">
+        <v>894</v>
+      </c>
+      <c r="G10">
+        <v>2007</v>
+      </c>
+      <c r="H10">
         <v>393</v>
       </c>
-      <c r="E10">
-        <v>2600</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
         <v>3419</v>
       </c>
-      <c r="G10">
-        <v>1387</v>
-      </c>
-      <c r="H10">
+      <c r="J10">
         <v>1493</v>
       </c>
-      <c r="I10">
-        <v>894</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
         <v>9470</v>
-      </c>
-      <c r="K10">
-        <v>2007</v>
       </c>
       <c r="L10">
         <v>141</v>
@@ -7444,28 +7426,28 @@
         <v>13.36326808510604</v>
       </c>
       <c r="N10">
+        <v>12.95114787210334</v>
+      </c>
+      <c r="O10">
+        <v>18.61377121693027</v>
+      </c>
+      <c r="P10">
+        <v>16.62929928375762</v>
+      </c>
+      <c r="Q10">
+        <v>11.8630171515407</v>
+      </c>
+      <c r="R10">
         <v>42.53458024045864</v>
       </c>
-      <c r="O10">
-        <v>12.95114787210334</v>
-      </c>
-      <c r="P10">
+      <c r="S10">
         <v>9.051923423369367</v>
       </c>
-      <c r="Q10">
-        <v>18.61377121693027</v>
-      </c>
-      <c r="R10">
+      <c r="T10">
         <v>12.97590050751915</v>
       </c>
-      <c r="S10">
-        <v>16.62929928375762</v>
-      </c>
-      <c r="T10">
+      <c r="U10">
         <v>5.416703694201609</v>
-      </c>
-      <c r="U10">
-        <v>11.8630171515407</v>
       </c>
       <c r="V10">
         <v>31.26142393545618</v>
@@ -7474,28 +7456,28 @@
         <v>581.1126939463851</v>
       </c>
       <c r="X10">
+        <v>911.1993779358198</v>
+      </c>
+      <c r="Y10">
+        <v>698.6226106686643</v>
+      </c>
+      <c r="Z10">
+        <v>402.2937383733122</v>
+      </c>
+      <c r="AA10">
+        <v>644.2795332190834</v>
+      </c>
+      <c r="AB10">
         <v>452.3415753560853</v>
       </c>
-      <c r="Y10">
-        <v>911.1993779358198</v>
-      </c>
-      <c r="Z10">
+      <c r="AC10">
         <v>837.4748556841125</v>
       </c>
-      <c r="AA10">
-        <v>698.6226106686643</v>
-      </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>524.2387497809324</v>
       </c>
-      <c r="AC10">
-        <v>402.2937383733122</v>
-      </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1388.087562655451</v>
-      </c>
-      <c r="AE10">
-        <v>644.2795332190834</v>
       </c>
       <c r="AF10">
         <v>119.2778145339694</v>
@@ -7512,28 +7494,28 @@
         <v>3041</v>
       </c>
       <c r="D11">
+        <v>3499</v>
+      </c>
+      <c r="E11">
+        <v>1823</v>
+      </c>
+      <c r="F11">
+        <v>355</v>
+      </c>
+      <c r="G11">
+        <v>5687</v>
+      </c>
+      <c r="H11">
         <v>1791</v>
       </c>
-      <c r="E11">
-        <v>3499</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
         <v>2087</v>
       </c>
-      <c r="G11">
-        <v>1823</v>
-      </c>
-      <c r="H11">
+      <c r="J11">
         <v>3357</v>
       </c>
-      <c r="I11">
-        <v>355</v>
-      </c>
-      <c r="J11">
+      <c r="K11">
         <v>10123</v>
-      </c>
-      <c r="K11">
-        <v>5687</v>
       </c>
       <c r="L11">
         <v>751</v>
@@ -7542,28 +7524,28 @@
         <v>9.72102042620007</v>
       </c>
       <c r="N11">
+        <v>9.577934999237144</v>
+      </c>
+      <c r="O11">
+        <v>11.89506125533675</v>
+      </c>
+      <c r="P11">
+        <v>26.83390598125477</v>
+      </c>
+      <c r="Q11">
+        <v>7.868377874483865</v>
+      </c>
+      <c r="R11">
         <v>13.7344832548181</v>
       </c>
-      <c r="O11">
-        <v>9.577934999237144</v>
-      </c>
-      <c r="P11">
+      <c r="S11">
         <v>10.26409147425812</v>
       </c>
-      <c r="Q11">
-        <v>11.89506125533675</v>
-      </c>
-      <c r="R11">
+      <c r="T11">
         <v>8.069691023092412</v>
       </c>
-      <c r="S11">
-        <v>26.83390598125477</v>
-      </c>
-      <c r="T11">
+      <c r="U11">
         <v>4.550338949356063</v>
-      </c>
-      <c r="U11">
-        <v>7.868377874483865</v>
       </c>
       <c r="V11">
         <v>12.38254015767217</v>
@@ -7572,28 +7554,28 @@
         <v>799.9449119267526</v>
       </c>
       <c r="X11">
+        <v>906.8754231553113</v>
+      </c>
+      <c r="Y11">
+        <v>586.7933130232059</v>
+      </c>
+      <c r="Z11">
+        <v>257.7769325368835</v>
+      </c>
+      <c r="AA11">
+        <v>1210.877589013698</v>
+      </c>
+      <c r="AB11">
         <v>665.6404639386791</v>
       </c>
-      <c r="Y11">
-        <v>906.8754231553113</v>
-      </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>579.6619153071039</v>
       </c>
-      <c r="AA11">
-        <v>586.7933130232059</v>
-      </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>733.0608942961355</v>
       </c>
-      <c r="AC11">
-        <v>257.7769325368835</v>
-      </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1246.478492618304</v>
-      </c>
-      <c r="AE11">
-        <v>1210.877589013698</v>
       </c>
       <c r="AF11">
         <v>251.6410488585378</v>
@@ -7610,25 +7592,25 @@
         <v>1532</v>
       </c>
       <c r="D12">
+        <v>970</v>
+      </c>
+      <c r="E12">
+        <v>220</v>
+      </c>
+      <c r="G12">
+        <v>2203</v>
+      </c>
+      <c r="H12">
         <v>297</v>
       </c>
-      <c r="E12">
-        <v>970</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
         <v>1815</v>
       </c>
-      <c r="G12">
-        <v>220</v>
-      </c>
-      <c r="H12">
+      <c r="J12">
         <v>826</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2600</v>
-      </c>
-      <c r="K12">
-        <v>2203</v>
       </c>
       <c r="L12">
         <v>574</v>
@@ -7637,25 +7619,25 @@
         <v>13.00104853521333</v>
       </c>
       <c r="N12">
+        <v>20.13594694775559</v>
+      </c>
+      <c r="O12">
+        <v>42.19866725349583</v>
+      </c>
+      <c r="Q12">
+        <v>10.25368002378422</v>
+      </c>
+      <c r="R12">
         <v>35.46222599373283</v>
       </c>
-      <c r="O12">
-        <v>20.13594694775559</v>
-      </c>
-      <c r="P12">
+      <c r="S12">
         <v>11.12804045596713</v>
       </c>
-      <c r="Q12">
-        <v>42.19866725349583</v>
-      </c>
-      <c r="R12">
+      <c r="T12">
         <v>19.21487119989404</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>10.69049224701191</v>
-      </c>
-      <c r="U12">
-        <v>10.25368002378422</v>
       </c>
       <c r="V12">
         <v>21.45533366444791</v>
@@ -7664,25 +7646,25 @@
         <v>538.97540739351</v>
       </c>
       <c r="X12">
+        <v>528.5372456412131</v>
+      </c>
+      <c r="Y12">
+        <v>251.2194268202103</v>
+      </c>
+      <c r="AA12">
+        <v>611.2601201345259</v>
+      </c>
+      <c r="AB12">
         <v>285.0061601812319</v>
       </c>
-      <c r="Y12">
-        <v>528.5372456412131</v>
-      </c>
-      <c r="Z12">
+      <c r="AC12">
         <v>546.5465154986809</v>
       </c>
-      <c r="AA12">
-        <v>251.2194268202103</v>
-      </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>429.4863143876066</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>752.1472213507307</v>
-      </c>
-      <c r="AE12">
-        <v>611.2601201345259</v>
       </c>
       <c r="AF12">
         <v>333.2567616633982</v>
@@ -7698,74 +7680,74 @@
       <c r="C13">
         <v>950</v>
       </c>
+      <c r="D13">
+        <v>2450</v>
+      </c>
       <c r="E13">
-        <v>2450</v>
+        <v>207</v>
       </c>
       <c r="F13">
+        <v>583</v>
+      </c>
+      <c r="G13">
+        <v>1417</v>
+      </c>
+      <c r="I13">
         <v>569</v>
       </c>
-      <c r="G13">
-        <v>207</v>
-      </c>
-      <c r="H13">
+      <c r="J13">
         <v>709</v>
       </c>
-      <c r="I13">
-        <v>583</v>
-      </c>
-      <c r="J13">
+      <c r="K13">
         <v>5368</v>
-      </c>
-      <c r="K13">
-        <v>1417</v>
       </c>
       <c r="M13">
         <v>17.75461925946557</v>
       </c>
+      <c r="N13">
+        <v>13.05569934302999</v>
+      </c>
       <c r="O13">
-        <v>13.05569934302999</v>
+        <v>21.73689752397735</v>
       </c>
       <c r="P13">
+        <v>28.73424345455931</v>
+      </c>
+      <c r="Q13">
+        <v>15.05049562054569</v>
+      </c>
+      <c r="S13">
         <v>25.41961030021482</v>
       </c>
-      <c r="Q13">
-        <v>21.73689752397735</v>
-      </c>
-      <c r="R13">
+      <c r="T13">
         <v>23.66024967228016</v>
       </c>
-      <c r="S13">
-        <v>28.73424345455931</v>
-      </c>
-      <c r="T13">
+      <c r="U13">
         <v>6.475014196300758</v>
-      </c>
-      <c r="U13">
-        <v>15.05049562054569</v>
       </c>
       <c r="W13">
         <v>456.4222140251557</v>
       </c>
+      <c r="X13">
+        <v>865.5616959607069</v>
+      </c>
       <c r="Y13">
-        <v>865.5616959607069</v>
+        <v>121.7586174132041</v>
       </c>
       <c r="Z13">
+        <v>453.3150380702421</v>
+      </c>
+      <c r="AA13">
+        <v>577.1018367221898</v>
+      </c>
+      <c r="AC13">
         <v>391.3929144774149</v>
       </c>
-      <c r="AA13">
-        <v>121.7586174132041</v>
-      </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>453.9388602767723</v>
       </c>
-      <c r="AC13">
-        <v>453.3150380702421</v>
-      </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>940.5568195964426</v>
-      </c>
-      <c r="AE13">
-        <v>577.1018367221898</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -7779,28 +7761,28 @@
         <v>1987</v>
       </c>
       <c r="D14">
+        <v>228</v>
+      </c>
+      <c r="E14">
+        <v>380</v>
+      </c>
+      <c r="F14">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>2140</v>
+      </c>
+      <c r="H14">
         <v>58</v>
       </c>
-      <c r="E14">
-        <v>228</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>2439</v>
       </c>
-      <c r="G14">
-        <v>380</v>
-      </c>
-      <c r="H14">
+      <c r="J14">
         <v>1009</v>
       </c>
-      <c r="I14">
-        <v>44</v>
-      </c>
-      <c r="J14">
+      <c r="K14">
         <v>2113</v>
-      </c>
-      <c r="K14">
-        <v>2140</v>
       </c>
       <c r="L14">
         <v>203</v>
@@ -7809,28 +7791,28 @@
         <v>13.76099518686942</v>
       </c>
       <c r="N14">
+        <v>31.10249322923962</v>
+      </c>
+      <c r="O14">
+        <v>26.51169748570208</v>
+      </c>
+      <c r="P14">
+        <v>43.30596302475126</v>
+      </c>
+      <c r="Q14">
+        <v>13.03275600897484</v>
+      </c>
+      <c r="R14">
         <v>45.33567605413552</v>
       </c>
-      <c r="O14">
-        <v>31.10249322923962</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
         <v>12.3999966446132</v>
       </c>
-      <c r="Q14">
-        <v>26.51169748570208</v>
-      </c>
-      <c r="R14">
+      <c r="T14">
         <v>16.29687241073901</v>
       </c>
-      <c r="S14">
-        <v>43.30596302475126</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
         <v>10.75076587494031</v>
-      </c>
-      <c r="U14">
-        <v>13.03275600897484</v>
       </c>
       <c r="V14">
         <v>32.73867338679806</v>
@@ -7839,28 +7821,28 @@
         <v>739.9110524008951</v>
       </c>
       <c r="X14">
+        <v>191.8942032686892</v>
+      </c>
+      <c r="Y14">
+        <v>272.6170015172385</v>
+      </c>
+      <c r="Z14">
+        <v>51.56228818138311</v>
+      </c>
+      <c r="AA14">
+        <v>754.7130205945834</v>
+      </c>
+      <c r="AB14">
         <v>71.15409422074741</v>
       </c>
-      <c r="Y14">
-        <v>191.8942032686892</v>
-      </c>
-      <c r="Z14">
+      <c r="AC14">
         <v>818.39915544464</v>
       </c>
-      <c r="AA14">
-        <v>272.6170015172385</v>
-      </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>444.9664186275746</v>
       </c>
-      <c r="AC14">
-        <v>51.56228818138311</v>
-      </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>614.7106051209179</v>
-      </c>
-      <c r="AE14">
-        <v>754.7130205945834</v>
       </c>
       <c r="AF14">
         <v>179.8410873625657</v>
@@ -7876,20 +7858,20 @@
       <c r="C15">
         <v>2035</v>
       </c>
-      <c r="E15">
+      <c r="D15">
         <v>1651</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>2284</v>
+      </c>
+      <c r="I15">
         <v>2352</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1418</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3882</v>
-      </c>
-      <c r="K15">
-        <v>2284</v>
       </c>
       <c r="L15">
         <v>304</v>
@@ -7897,20 +7879,20 @@
       <c r="M15">
         <v>11.34394953226318</v>
       </c>
-      <c r="O15">
+      <c r="N15">
         <v>11.63429646328447</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
+        <v>11.97805560502762</v>
+      </c>
+      <c r="S15">
         <v>10.99450431394108</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>14.65939072243556</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>9.817133046331126</v>
-      </c>
-      <c r="U15">
-        <v>11.97805560502762</v>
       </c>
       <c r="V15">
         <v>21.14152218007241</v>
@@ -7918,20 +7900,20 @@
       <c r="W15">
         <v>624.6841745224142</v>
       </c>
-      <c r="Y15">
+      <c r="X15">
         <v>519.7793289073498</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
+        <v>740.3110452607067</v>
+      </c>
+      <c r="AC15">
         <v>699.7530111698341</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>562.5018509158438</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1031.269117274923</v>
-      </c>
-      <c r="AE15">
-        <v>740.3110452607067</v>
       </c>
       <c r="AF15">
         <v>173.9168421742845</v>
@@ -7948,25 +7930,25 @@
         <v>1883</v>
       </c>
       <c r="D16">
+        <v>1746</v>
+      </c>
+      <c r="E16">
+        <v>214</v>
+      </c>
+      <c r="G16">
+        <v>2717</v>
+      </c>
+      <c r="H16">
         <v>243</v>
       </c>
-      <c r="E16">
-        <v>1746</v>
-      </c>
-      <c r="F16">
+      <c r="I16">
         <v>1997</v>
       </c>
-      <c r="G16">
-        <v>214</v>
-      </c>
-      <c r="H16">
+      <c r="J16">
         <v>2439</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2888</v>
-      </c>
-      <c r="K16">
-        <v>2717</v>
       </c>
       <c r="L16">
         <v>208</v>
@@ -7975,25 +7957,25 @@
         <v>13.01088504296218</v>
       </c>
       <c r="N16">
+        <v>15.84762234860122</v>
+      </c>
+      <c r="O16">
+        <v>44.16992826632065</v>
+      </c>
+      <c r="Q16">
+        <v>10.91504829010702</v>
+      </c>
+      <c r="R16">
         <v>43.24055205400536</v>
       </c>
-      <c r="O16">
-        <v>15.84762234860122</v>
-      </c>
-      <c r="P16">
+      <c r="S16">
         <v>13.55153333068964</v>
       </c>
-      <c r="Q16">
-        <v>44.16992826632065</v>
-      </c>
-      <c r="R16">
+      <c r="T16">
         <v>10.67838159711045</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>9.757914560837042</v>
-      </c>
-      <c r="U16">
-        <v>10.91504829010702</v>
       </c>
       <c r="V16">
         <v>41.71081610977455</v>
@@ -8002,25 +7984,25 @@
         <v>662.9625011355281</v>
       </c>
       <c r="X16">
+        <v>748.7557271621533</v>
+      </c>
+      <c r="Y16">
+        <v>255.7833504929025</v>
+      </c>
+      <c r="AA16">
+        <v>802.5038127327651</v>
+      </c>
+      <c r="AB16">
         <v>284.3343361388139</v>
       </c>
-      <c r="Y16">
-        <v>748.7557271621533</v>
-      </c>
-      <c r="Z16">
+      <c r="AC16">
         <v>732.3156359841533</v>
       </c>
-      <c r="AA16">
-        <v>255.7833504929025</v>
-      </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>704.7726488206143</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>762.581042445244</v>
-      </c>
-      <c r="AE16">
-        <v>802.5038127327651</v>
       </c>
       <c r="AF16">
         <v>234.7706632199816</v>
@@ -8036,23 +8018,23 @@
       <c r="C17">
         <v>2935</v>
       </c>
+      <c r="D17">
+        <v>1688</v>
+      </c>
       <c r="E17">
-        <v>1688</v>
-      </c>
-      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <v>3208</v>
+      </c>
+      <c r="I17">
         <v>1519</v>
       </c>
-      <c r="G17">
-        <v>400</v>
-      </c>
-      <c r="H17">
+      <c r="J17">
         <v>1595</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3119</v>
-      </c>
-      <c r="K17">
-        <v>3208</v>
       </c>
       <c r="L17">
         <v>145</v>
@@ -8060,23 +8042,23 @@
       <c r="M17">
         <v>11.81673925514403</v>
       </c>
+      <c r="N17">
+        <v>14.07282248519311</v>
+      </c>
       <c r="O17">
-        <v>14.07282248519311</v>
-      </c>
-      <c r="P17">
+        <v>40.06276919484184</v>
+      </c>
+      <c r="Q17">
+        <v>11.10402841639242</v>
+      </c>
+      <c r="S17">
         <v>14.22762824583104</v>
       </c>
-      <c r="Q17">
-        <v>40.06276919484184</v>
-      </c>
-      <c r="R17">
+      <c r="T17">
         <v>12.90134594257559</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>9.376745899349983</v>
-      </c>
-      <c r="U17">
-        <v>11.10402841639242</v>
       </c>
       <c r="V17">
         <v>39.34498096472702</v>
@@ -8084,23 +8066,23 @@
       <c r="W17">
         <v>938.5071005891484</v>
       </c>
+      <c r="X17">
+        <v>642.8141917775501</v>
+      </c>
       <c r="Y17">
-        <v>642.8141917775501</v>
-      </c>
-      <c r="Z17">
+        <v>433.6434200418876</v>
+      </c>
+      <c r="AA17">
+        <v>963.9327341346232</v>
+      </c>
+      <c r="AC17">
         <v>584.8198262264199</v>
       </c>
-      <c r="AA17">
-        <v>433.6434200418876</v>
-      </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>556.8362662354168</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>791.4059781671795</v>
-      </c>
-      <c r="AE17">
-        <v>963.9327341346232</v>
       </c>
       <c r="AF17">
         <v>154.3793280668594</v>
@@ -8117,82 +8099,82 @@
         <v>1825</v>
       </c>
       <c r="D18">
+        <v>1010</v>
+      </c>
+      <c r="E18">
+        <v>354</v>
+      </c>
+      <c r="F18">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>1935</v>
+      </c>
+      <c r="H18">
         <v>143</v>
       </c>
-      <c r="E18">
-        <v>1010</v>
-      </c>
-      <c r="F18">
+      <c r="I18">
         <v>522</v>
       </c>
-      <c r="G18">
-        <v>354</v>
-      </c>
-      <c r="H18">
+      <c r="J18">
         <v>980</v>
       </c>
-      <c r="I18">
-        <v>48</v>
-      </c>
-      <c r="J18">
+      <c r="K18">
         <v>5362</v>
-      </c>
-      <c r="K18">
-        <v>1935</v>
       </c>
       <c r="M18">
         <v>16.51905485029119</v>
       </c>
       <c r="N18">
+        <v>16.72202830801862</v>
+      </c>
+      <c r="O18">
+        <v>24.08566718556934</v>
+      </c>
+      <c r="P18">
+        <v>43.5717006814418</v>
+      </c>
+      <c r="Q18">
+        <v>14.79310646505259</v>
+      </c>
+      <c r="R18">
         <v>29.83049018066725</v>
       </c>
-      <c r="O18">
-        <v>16.72202830801862</v>
-      </c>
-      <c r="P18">
+      <c r="S18">
         <v>25.72757587847168</v>
       </c>
-      <c r="Q18">
-        <v>24.08566718556934</v>
-      </c>
-      <c r="R18">
+      <c r="T18">
         <v>18.6200524957628</v>
       </c>
-      <c r="S18">
-        <v>43.5717006814418</v>
-      </c>
-      <c r="T18">
+      <c r="U18">
         <v>8.941566802323539</v>
-      </c>
-      <c r="U18">
-        <v>14.79310646505259</v>
       </c>
       <c r="W18">
         <v>815.7928010729808</v>
       </c>
       <c r="X18">
+        <v>457.0272891872815</v>
+      </c>
+      <c r="Y18">
+        <v>230.7245181122392</v>
+      </c>
+      <c r="Z18">
+        <v>56.5949334415193</v>
+      </c>
+      <c r="AA18">
+        <v>774.5904830925177</v>
+      </c>
+      <c r="AB18">
         <v>115.4325346333303</v>
       </c>
-      <c r="Y18">
-        <v>457.0272891872815</v>
-      </c>
-      <c r="Z18">
+      <c r="AC18">
         <v>363.4135995563457</v>
       </c>
-      <c r="AA18">
-        <v>230.7245181122392</v>
-      </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>493.7860100374959</v>
       </c>
-      <c r="AC18">
-        <v>56.5949334415193</v>
-      </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1297.39505928153</v>
-      </c>
-      <c r="AE18">
-        <v>774.5904830925177</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -8206,28 +8188,28 @@
         <v>1023</v>
       </c>
       <c r="D19">
+        <v>1415</v>
+      </c>
+      <c r="E19">
+        <v>480</v>
+      </c>
+      <c r="F19">
+        <v>106</v>
+      </c>
+      <c r="G19">
+        <v>1176</v>
+      </c>
+      <c r="H19">
         <v>52</v>
       </c>
-      <c r="E19">
-        <v>1415</v>
-      </c>
-      <c r="F19">
+      <c r="I19">
         <v>221</v>
       </c>
-      <c r="G19">
-        <v>480</v>
-      </c>
-      <c r="H19">
+      <c r="J19">
         <v>531</v>
       </c>
-      <c r="I19">
-        <v>106</v>
-      </c>
-      <c r="J19">
+      <c r="K19">
         <v>3473</v>
-      </c>
-      <c r="K19">
-        <v>1176</v>
       </c>
       <c r="L19">
         <v>49</v>
@@ -8236,28 +8218,28 @@
         <v>19.22660073386841</v>
       </c>
       <c r="N19">
+        <v>16.482558634913</v>
+      </c>
+      <c r="O19">
+        <v>22.29268108656367</v>
+      </c>
+      <c r="P19">
+        <v>30.67839931680899</v>
+      </c>
+      <c r="Q19">
+        <v>18.1123630527591</v>
+      </c>
+      <c r="R19">
         <v>42.67089656895079</v>
       </c>
-      <c r="O19">
-        <v>16.482558634913</v>
-      </c>
-      <c r="P19">
+      <c r="S19">
         <v>42.34501130060944</v>
       </c>
-      <c r="Q19">
-        <v>22.29268108656367</v>
-      </c>
-      <c r="R19">
+      <c r="T19">
         <v>26.29201332041616</v>
       </c>
-      <c r="S19">
-        <v>30.67839931680899</v>
-      </c>
-      <c r="T19">
+      <c r="U19">
         <v>8.297945259215281</v>
-      </c>
-      <c r="U19">
-        <v>18.1123630527591</v>
       </c>
       <c r="V19">
         <v>44.83679335226915</v>
@@ -8266,53 +8248,44 @@
         <v>532.242984826362</v>
       </c>
       <c r="X19">
+        <v>631.1213525800723</v>
+      </c>
+      <c r="Y19">
+        <v>289.5578512188886</v>
+      </c>
+      <c r="Z19">
+        <v>87.99750644194414</v>
+      </c>
+      <c r="AA19">
+        <v>576.3870850229471</v>
+      </c>
+      <c r="AB19">
         <v>60.04362670175745</v>
       </c>
-      <c r="Y19">
-        <v>631.1213525800723</v>
-      </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>253.236516842457</v>
       </c>
-      <c r="AA19">
-        <v>289.5578512188886</v>
-      </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>377.7897487839631</v>
       </c>
-      <c r="AC19">
-        <v>87.99750644194414</v>
-      </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>779.8429554259627</v>
-      </c>
-      <c r="AE19">
-        <v>576.3870850229471</v>
       </c>
       <c r="AF19">
         <v>59.45144702822632</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="9">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="M1:V1"/>
     <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
